--- a/biology/Zoologie/Atlides_atys/Atlides_atys.xlsx
+++ b/biology/Zoologie/Atlides_atys/Atlides_atys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlides atys est un papillon de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Atlides.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlides atys a été décrit par Pieter Cramer en 1779 sous le nom de Papilio atys.
-Synonymes : Atlides scamander Hübner, [1819]; Thecla atys Hewitson, 1867[1].
-Noms vernaculaires
-Atlides atys se nomme Atys Hairstreak en anglais[2].
+Synonymes : Atlides scamander Hübner, ; Thecla atys Hewitson, 1867.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atlides atys est un petit papillon d'une envergure d'environ 44 mm avec une longue et une très courte fines queues à chaque aile postérieure[3]. Le dessus de couleur beige est très largement suffusé de vert argenté ou de bleu avec aux ailes antérieures près du milieu du bord costal une tache double marron. Le revers est beige veiné de marron avec dans la partie basale des taches rouge triangulaires.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides atys se nomme Atys Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -573,12 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides atys est un petit papillon d'une envergure d'environ 44 mm avec une longue et une très courte fines queues à chaque aile postérieure. Le dessus de couleur beige est très largement suffusé de vert argenté ou de bleu avec aux ailes antérieures près du milieu du bord costal une tache double marron. Le revers est beige veiné de marron avec dans la partie basale des taches rouge triangulaires.
+</t>
         </is>
       </c>
     </row>
@@ -606,14 +627,50 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside à Panama, en Colombie, en Équateur, au Brésil, au Venezuela, au Surinam et en Guyane[1],[2],[3],[4],[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside à Panama, en Colombie, en Équateur, au Brésil, au Venezuela, au Surinam et en Guyane.
 Sur les autres projets Wikimedia :
 Atlides atys, sur Wikimedia CommonsAtlides atys, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Atlides_atys</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlides_atys</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
